--- a/applications/south_africa/FS_validation.xlsx
+++ b/applications/south_africa/FS_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="B3">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="C3">
-        <v>477</v>
+        <v>246</v>
       </c>
       <c r="D3">
-        <v>1093</v>
+        <v>1282</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
